--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/ResumenVehicular.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/ResumenVehicular.xlsx
@@ -18,19 +18,19 @@
     <definedName name="Detención">Informe!$H$10</definedName>
     <definedName name="Distrito">Informe!$B$6</definedName>
     <definedName name="Hasta">Informe!$B$10</definedName>
-    <definedName name="Infracciones">Informe!$G$15</definedName>
-    <definedName name="Kilómetros">Informe!$H$15</definedName>
-    <definedName name="Legajo">Informe!$D$15</definedName>
+    <definedName name="INFRACCIONES">Informe!$G$15</definedName>
+    <definedName name="KILOMETROS">Informe!$H$15</definedName>
+    <definedName name="LEGAJO">Informe!$D$15</definedName>
     <definedName name="Máxima_Alcanzada">Informe!$F$9</definedName>
     <definedName name="Movimiento">Informe!$F$10</definedName>
-    <definedName name="Nombre">Informe!$E$15</definedName>
+    <definedName name="NAME">Informe!$E$15</definedName>
     <definedName name="Promedio">Informe!$H$9</definedName>
     <definedName name="Promedio_Diario">Informe!$H$7</definedName>
     <definedName name="Sin_Actividad">Informe!$J$8</definedName>
     <definedName name="Sin_Reportar">Informe!$J$10</definedName>
-    <definedName name="Tarjeta">Informe!$F$15</definedName>
+    <definedName name="TARJETA">Informe!$F$15</definedName>
     <definedName name="Tiempo">Informe!$H$11</definedName>
-    <definedName name="Tiempo_de_Conducción">Informe!$I$15</definedName>
+    <definedName name="TIEMPO_CONDUCCION">Informe!$I$15</definedName>
     <definedName name="Titulo">Informe!$D$1</definedName>
     <definedName name="Total">Informe!$F$7</definedName>
     <definedName name="Totales">Informe!$F$8</definedName>
@@ -721,48 +721,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,7 +782,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -803,7 +803,7 @@
           <a:pPr>
             <a:defRPr lang="es-AR"/>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -825,7 +825,7 @@
             <c:numRef>
               <c:f>Informe!$A$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Estándar</c:formatCode>
                 <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
@@ -834,7 +834,7 @@
             <c:numRef>
               <c:f>Informe!$B$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0,00</c:formatCode>
                 <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
@@ -849,17 +849,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="165435904"/>
-        <c:axId val="38393472"/>
+        <c:axId val="165825536"/>
+        <c:axId val="170226432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165435904"/>
+        <c:axId val="165825536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="Estándar" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -870,10 +870,10 @@
             <a:pPr>
               <a:defRPr lang="es-AR"/>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38393472"/>
+        <c:crossAx val="170226432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -881,14 +881,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38393472"/>
+        <c:axId val="170226432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0,00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -899,10 +899,10 @@
             <a:pPr>
               <a:defRPr lang="es-AR"/>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165435904"/>
+        <c:crossAx val="165825536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -918,7 +918,7 @@
           <a:pPr>
             <a:defRPr lang="es-AR"/>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1306,10 +1306,10 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
